--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 99999TCD00.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 99999TCD00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE337D86-FE4C-4E1F-83C5-3F3822E745CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C50C41-6357-4295-BBB5-9747BD830039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="2760" windowWidth="11325" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>13</v>
       </c>
       <c r="I2">
-        <v>67.855000000000004</v>
+        <v>89.501999999999995</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="I3">
-        <v>79.555000000000007</v>
+        <v>89.501999999999995</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>79.555000000000007</v>
+        <v>89.501999999999995</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -576,7 +576,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I6">
         <f>AVERAGEIF(I2:I4,"&lt;&gt; -100")</f>
-        <v>75.655000000000015</v>
+        <v>89.501999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 99999TCD00.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 99999TCD00.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C50C41-6357-4295-BBB5-9747BD830039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{74C50C41-6357-4295-BBB5-9747BD830039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEFDF907-FF5F-46D0-B56D-5FD259D37A19}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2760" windowWidth="11325" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="-1020" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>archivo</t>
   </si>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,8 +493,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2">
+        <v>4501168528</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>13</v>
       </c>
       <c r="I2">
-        <v>89.501999999999995</v>
+        <v>91.272999999999996</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="I3">
-        <v>89.501999999999995</v>
+        <v>91.272999999999996</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>89.501999999999995</v>
+        <v>91.272999999999996</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -576,7 +576,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I6">
         <f>AVERAGEIF(I2:I4,"&lt;&gt; -100")</f>
-        <v>89.501999999999995</v>
+        <v>91.272999999999982</v>
       </c>
     </row>
   </sheetData>
